--- a/biology/Médecine/Artériole_efférente_rénale/Artériole_efférente_rénale.xlsx
+++ b/biology/Médecine/Artériole_efférente_rénale/Artériole_efférente_rénale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole_eff%C3%A9rente_r%C3%A9nale</t>
+          <t>Artériole_efférente_rénale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artérioles efférentes sont des vaisseaux sanguins qui font partie des voies urinaires des organismes. Efférent (du latin ex + ferre) signifie « sortant », signifiant dans ce cas transporter le sang loin du glomérule. Les artérioles efférentes se forment à partir d'une convergence des capillaires du glomérule et transportent le sang du glomérule déjà filtré. Elles jouent un rôle important dans le maintien du débit de filtration glomérulaire malgré les fluctuations de la pression artérielle. 
 Dans le rein du mammifère, elles suivent deux parcours très différents selon l'emplacement des glomérules dont elles sont issues. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole_eff%C3%A9rente_r%C3%A9nale</t>
+          <t>Artériole_efférente_rénale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Glomérules corticaux indifférenciés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artérioles efférentes des glomérules corticaux indifférenciés sont les plus complexes. Dès leur sortie du glomérule, elles se décomposent en capillaires péritubulaires et font partie d'un riche plexus de vaisseaux entourant les parties corticales des tubules rénaux. 
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole_eff%C3%A9rente_r%C3%A9nale</t>
+          <t>Artériole_efférente_rénale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Glomérules juxtamédullaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artérioles efférentes des glomérules juxtamédullaires sont très différentes. Elles se décomposent, mais elles forment des groupes de vaisseaux (arteriolae recti) qui traversent la zone externe de la médullaire pour perfuser la zone interne. 
 Les vaisseaux revenant de la médullaire (venulae recti) croisent de façon très régulière les arteriolae recti descendantes pour former un rete mirabile bien organisé. 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole_eff%C3%A9rente_r%C3%A9nale</t>
+          <t>Artériole_efférente_rénale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Régulation du débit de filtration glomérulaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque les niveaux d'angiotensine II augmentent en raison de l'activation du système rénine-angiotensine-aldostérone, la plupart des artères du corps subissent une vasoconstriction, afin de maintenir une tension artérielle adéquate. Cependant, cela réduit le flux sanguin vers les reins. Pour compenser, les artérioles efférentes se contractent à un degré plus élevé que les autres artères, en réponse à des niveaux accrus d'angiotensine II. La pression dans les capillaires glomérulaires est donc maintenue et le débit de filtration glomérulaire reste adéquat.  
 Cependant, dans les états où l'angiotensine II est très élevée pendant une période de temps prolongée, la pression oncotique des capillaires augmentera, s'opposant à la pression hydrostatique accrue à cause de la constriction efférente. Cela diminuera le taux de filtration glomérulaire en fonction du niveau d'augmentation oncotique dans les capillaires, entraînant une diminution de la fraction de filtration. 
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole_eff%C3%A9rente_r%C3%A9nale</t>
+          <t>Artériole_efférente_rénale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Artériole afférente</t>
         </is>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Art%C3%A9riole_eff%C3%A9rente_r%C3%A9nale</t>
+          <t>Artériole_efférente_rénale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Corpuscule malpighien.
